--- a/data/pca/factorExposure/factorExposure_2015-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01949662760695234</v>
+        <v>0.008076455378140281</v>
       </c>
       <c r="C2">
-        <v>0.02148822879321713</v>
+        <v>-0.04993932276233564</v>
       </c>
       <c r="D2">
-        <v>-0.1127593443909371</v>
+        <v>0.1364506861976468</v>
       </c>
       <c r="E2">
-        <v>0.004034071177369754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.007221954708034719</v>
+      </c>
+      <c r="F2">
+        <v>0.0153914311540816</v>
+      </c>
+      <c r="G2">
+        <v>0.1227591367032908</v>
+      </c>
+      <c r="H2">
+        <v>-0.0673299812997873</v>
+      </c>
+      <c r="I2">
+        <v>-0.03993426449287885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.005693308915199853</v>
+        <v>-0.005623538999103901</v>
       </c>
       <c r="C3">
-        <v>0.008984286842484406</v>
+        <v>-0.002795451945949812</v>
       </c>
       <c r="D3">
-        <v>0.005931880350725136</v>
+        <v>0.0005704260113294878</v>
       </c>
       <c r="E3">
-        <v>-0.001110811509269569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.008853993905325867</v>
+      </c>
+      <c r="F3">
+        <v>-0.004780146475420733</v>
+      </c>
+      <c r="G3">
+        <v>0.0004189168067641705</v>
+      </c>
+      <c r="H3">
+        <v>0.01086097928064071</v>
+      </c>
+      <c r="I3">
+        <v>-0.005647181365358927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04507398939800076</v>
+        <v>0.018286059504425</v>
       </c>
       <c r="C4">
-        <v>0.06937423621512571</v>
+        <v>-0.1005713052632067</v>
       </c>
       <c r="D4">
-        <v>-0.1337355831575647</v>
+        <v>0.1384297895937569</v>
       </c>
       <c r="E4">
-        <v>0.07761139152118619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01360048407866633</v>
+      </c>
+      <c r="F4">
+        <v>0.08528246963261271</v>
+      </c>
+      <c r="G4">
+        <v>0.002945408740286463</v>
+      </c>
+      <c r="H4">
+        <v>-0.05214578219759689</v>
+      </c>
+      <c r="I4">
+        <v>0.05670691307256247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02390199741704845</v>
+        <v>0.02658824394060886</v>
       </c>
       <c r="C6">
-        <v>0.01282038930817591</v>
+        <v>-0.03190147000968482</v>
       </c>
       <c r="D6">
-        <v>-0.1398356068202099</v>
+        <v>0.1287315909914877</v>
       </c>
       <c r="E6">
-        <v>0.03433374929626832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04612700933839689</v>
+      </c>
+      <c r="F6">
+        <v>0.04886310862867289</v>
+      </c>
+      <c r="G6">
+        <v>-9.709235601120542e-05</v>
+      </c>
+      <c r="H6">
+        <v>-0.06642954956737566</v>
+      </c>
+      <c r="I6">
+        <v>-0.003265854854991789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0057502740974865</v>
+        <v>0.008234894615773859</v>
       </c>
       <c r="C7">
-        <v>0.02211809119893892</v>
+        <v>-0.03246281457872241</v>
       </c>
       <c r="D7">
-        <v>-0.1122522846068845</v>
+        <v>0.1009333608254326</v>
       </c>
       <c r="E7">
-        <v>0.001421839753407118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05010799488479267</v>
+      </c>
+      <c r="F7">
+        <v>0.009357799307393902</v>
+      </c>
+      <c r="G7">
+        <v>-0.009510582793314255</v>
+      </c>
+      <c r="H7">
+        <v>-0.08010118646125007</v>
+      </c>
+      <c r="I7">
+        <v>-0.01526274148644644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003434993560200303</v>
+        <v>-0.0135056592848101</v>
       </c>
       <c r="C8">
-        <v>0.02531483404075351</v>
+        <v>-0.0314058747840206</v>
       </c>
       <c r="D8">
-        <v>-0.08007587048823435</v>
+        <v>0.07777717272940414</v>
       </c>
       <c r="E8">
-        <v>0.0249182495720658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01892528392710456</v>
+      </c>
+      <c r="F8">
+        <v>0.04497591396397501</v>
+      </c>
+      <c r="G8">
+        <v>0.06251307493337635</v>
+      </c>
+      <c r="H8">
+        <v>-0.009385839865321537</v>
+      </c>
+      <c r="I8">
+        <v>-0.02748666003913093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03837998443988842</v>
+        <v>0.01292701107214669</v>
       </c>
       <c r="C9">
-        <v>0.0588222566386669</v>
+        <v>-0.08345029460554171</v>
       </c>
       <c r="D9">
-        <v>-0.1325987448620738</v>
+        <v>0.11950770655264</v>
       </c>
       <c r="E9">
-        <v>0.06239087181641371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004918019563877464</v>
+      </c>
+      <c r="F9">
+        <v>0.05659538311338946</v>
+      </c>
+      <c r="G9">
+        <v>-0.01723384821129615</v>
+      </c>
+      <c r="H9">
+        <v>-0.06392558769683855</v>
+      </c>
+      <c r="I9">
+        <v>0.02222851417072064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1585196858957621</v>
+        <v>0.2335670861959373</v>
       </c>
       <c r="C10">
-        <v>-0.1768742963530173</v>
+        <v>0.09916031417376735</v>
       </c>
       <c r="D10">
-        <v>-0.008320436338191928</v>
+        <v>-0.00500329665696667</v>
       </c>
       <c r="E10">
-        <v>0.04840533903661116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02684663700467547</v>
+      </c>
+      <c r="F10">
+        <v>0.04072002758376985</v>
+      </c>
+      <c r="G10">
+        <v>0.00741492028862256</v>
+      </c>
+      <c r="H10">
+        <v>0.06729309713138927</v>
+      </c>
+      <c r="I10">
+        <v>-0.09263345683932608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02130570806409075</v>
+        <v>0.008690790954954265</v>
       </c>
       <c r="C11">
-        <v>0.03952269063168126</v>
+        <v>-0.05234562707354374</v>
       </c>
       <c r="D11">
-        <v>-0.05050136375425655</v>
+        <v>0.04339649347431095</v>
       </c>
       <c r="E11">
-        <v>-0.01641984135278715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01952558539175136</v>
+      </c>
+      <c r="F11">
+        <v>-0.01183925572514858</v>
+      </c>
+      <c r="G11">
+        <v>-0.006488478574460182</v>
+      </c>
+      <c r="H11">
+        <v>-0.05017697190187593</v>
+      </c>
+      <c r="I11">
+        <v>0.05191518547494241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02230856938204974</v>
+        <v>0.009317610358713655</v>
       </c>
       <c r="C12">
-        <v>0.03980342144756271</v>
+        <v>-0.04868126446056983</v>
       </c>
       <c r="D12">
-        <v>-0.0631126566549513</v>
+        <v>0.04900638499324315</v>
       </c>
       <c r="E12">
-        <v>-0.00640881574288516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01853174910680764</v>
+      </c>
+      <c r="F12">
+        <v>-0.01618891597501023</v>
+      </c>
+      <c r="G12">
+        <v>-0.027110644182382</v>
+      </c>
+      <c r="H12">
+        <v>-0.07279330089447253</v>
+      </c>
+      <c r="I12">
+        <v>0.02973474819581941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.006316340891825257</v>
+        <v>-0.002230257244624599</v>
       </c>
       <c r="C13">
-        <v>0.02369141872519712</v>
+        <v>-0.04206177488070711</v>
       </c>
       <c r="D13">
-        <v>-0.1496888362670978</v>
+        <v>0.148395742553577</v>
       </c>
       <c r="E13">
-        <v>0.03106983815537293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03834299167043168</v>
+      </c>
+      <c r="F13">
+        <v>0.03722398813023459</v>
+      </c>
+      <c r="G13">
+        <v>0.03321404339835796</v>
+      </c>
+      <c r="H13">
+        <v>-0.08456723156711327</v>
+      </c>
+      <c r="I13">
+        <v>-0.1193106973592854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004170463619875753</v>
+        <v>-0.002116585408705296</v>
       </c>
       <c r="C14">
-        <v>0.01762083352647613</v>
+        <v>-0.02661346309672318</v>
       </c>
       <c r="D14">
-        <v>-0.09884788638279414</v>
+        <v>0.1042427443446538</v>
       </c>
       <c r="E14">
-        <v>0.008871142089761763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02815700073529994</v>
+      </c>
+      <c r="F14">
+        <v>0.02874541546532732</v>
+      </c>
+      <c r="G14">
+        <v>0.01510698400968516</v>
+      </c>
+      <c r="H14">
+        <v>-0.1350080766185014</v>
+      </c>
+      <c r="I14">
+        <v>-0.01764138867307429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001467769051419606</v>
+        <v>-0.001417233557283425</v>
       </c>
       <c r="C15">
-        <v>0.01034937982818622</v>
+        <v>-0.01998423309596676</v>
       </c>
       <c r="D15">
-        <v>-0.02725083488487712</v>
+        <v>0.05461238291062363</v>
       </c>
       <c r="E15">
-        <v>-0.004071302749492293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006006681919142516</v>
+      </c>
+      <c r="F15">
+        <v>0.004376700316559724</v>
+      </c>
+      <c r="G15">
+        <v>0.0224296268858331</v>
+      </c>
+      <c r="H15">
+        <v>-0.02987100345398213</v>
+      </c>
+      <c r="I15">
+        <v>0.01850783975019983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02149316107465868</v>
+        <v>0.009504583704220988</v>
       </c>
       <c r="C16">
-        <v>0.03752121593119327</v>
+        <v>-0.04792691959848595</v>
       </c>
       <c r="D16">
-        <v>-0.05734055436532468</v>
+        <v>0.04513121204480345</v>
       </c>
       <c r="E16">
-        <v>-0.009364235720717489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02052899997747778</v>
+      </c>
+      <c r="F16">
+        <v>-0.00876408338854222</v>
+      </c>
+      <c r="G16">
+        <v>-0.01954236063431627</v>
+      </c>
+      <c r="H16">
+        <v>-0.05368541854649494</v>
+      </c>
+      <c r="I16">
+        <v>0.0463536903316694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.00653261677134903</v>
+        <v>0.0006310983018859665</v>
       </c>
       <c r="C19">
-        <v>0.01969227196752274</v>
+        <v>-0.01894009630324974</v>
       </c>
       <c r="D19">
-        <v>-0.1099298960685847</v>
+        <v>0.07002316626074367</v>
       </c>
       <c r="E19">
-        <v>0.03983745757338043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02058889402309368</v>
+      </c>
+      <c r="F19">
+        <v>0.005570578285792549</v>
+      </c>
+      <c r="G19">
+        <v>0.00686596909503517</v>
+      </c>
+      <c r="H19">
+        <v>-0.06514486164075999</v>
+      </c>
+      <c r="I19">
+        <v>-0.04659282720720111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004589499661498713</v>
+        <v>0.003331859639264622</v>
       </c>
       <c r="C20">
-        <v>0.02409514721584728</v>
+        <v>-0.03737360333511943</v>
       </c>
       <c r="D20">
-        <v>-0.08957447216530709</v>
+        <v>0.09568376232589478</v>
       </c>
       <c r="E20">
-        <v>0.03324655307941755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008185401682913726</v>
+      </c>
+      <c r="F20">
+        <v>0.02594992056866088</v>
+      </c>
+      <c r="G20">
+        <v>-0.006710548640730498</v>
+      </c>
+      <c r="H20">
+        <v>-0.05943712403695441</v>
+      </c>
+      <c r="I20">
+        <v>0.02205070480599877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.007663926401492758</v>
+        <v>0.001171625380597362</v>
       </c>
       <c r="C21">
-        <v>0.02887740370428092</v>
+        <v>-0.03891040045505369</v>
       </c>
       <c r="D21">
-        <v>-0.1641645046705763</v>
+        <v>0.1316445314086761</v>
       </c>
       <c r="E21">
-        <v>0.07039404350119327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.001031527749670251</v>
+      </c>
+      <c r="F21">
+        <v>0.07864299794662349</v>
+      </c>
+      <c r="G21">
+        <v>0.01892415375832033</v>
+      </c>
+      <c r="H21">
+        <v>-0.2007230654737703</v>
+      </c>
+      <c r="I21">
+        <v>-0.1642520440438822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001276001776161403</v>
+        <v>-0.01146402832886849</v>
       </c>
       <c r="C22">
-        <v>0.06069581623860034</v>
+        <v>-0.08253610563069118</v>
       </c>
       <c r="D22">
-        <v>-0.2349907938328087</v>
+        <v>0.2717161359613608</v>
       </c>
       <c r="E22">
-        <v>-0.02258394114914287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0479112714187548</v>
+      </c>
+      <c r="F22">
+        <v>0.03283121414476655</v>
+      </c>
+      <c r="G22">
+        <v>0.3644413959032022</v>
+      </c>
+      <c r="H22">
+        <v>0.3728153502456732</v>
+      </c>
+      <c r="I22">
+        <v>0.1294738704520835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00154070469114755</v>
+        <v>-0.01107394357842557</v>
       </c>
       <c r="C23">
-        <v>0.06118087372201669</v>
+        <v>-0.0835618822286382</v>
       </c>
       <c r="D23">
-        <v>-0.2345555668278309</v>
+        <v>0.2724272822374904</v>
       </c>
       <c r="E23">
-        <v>-0.02241143697873971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0446029067086609</v>
+      </c>
+      <c r="F23">
+        <v>0.03241485128981773</v>
+      </c>
+      <c r="G23">
+        <v>0.3639693375363482</v>
+      </c>
+      <c r="H23">
+        <v>0.3729446494359731</v>
+      </c>
+      <c r="I23">
+        <v>0.1302270372826622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02760763831589411</v>
+        <v>0.008631935443488921</v>
       </c>
       <c r="C24">
-        <v>0.05593389337619841</v>
+        <v>-0.06489622510425068</v>
       </c>
       <c r="D24">
-        <v>-0.06962342676343998</v>
+        <v>0.05283723497572801</v>
       </c>
       <c r="E24">
-        <v>-0.005686736480190449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02496660098441904</v>
+      </c>
+      <c r="F24">
+        <v>-0.006342476716457369</v>
+      </c>
+      <c r="G24">
+        <v>-0.0107400076969648</v>
+      </c>
+      <c r="H24">
+        <v>-0.07950469433944898</v>
+      </c>
+      <c r="I24">
+        <v>0.04179910360668963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02908053075189585</v>
+        <v>0.01234564433664144</v>
       </c>
       <c r="C25">
-        <v>0.04696109633247907</v>
+        <v>-0.06018944513889531</v>
       </c>
       <c r="D25">
-        <v>-0.06191006751156979</v>
+        <v>0.05115242859138608</v>
       </c>
       <c r="E25">
-        <v>-0.0009571443828849994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01151835662482651</v>
+      </c>
+      <c r="F25">
+        <v>-0.007980353858757045</v>
+      </c>
+      <c r="G25">
+        <v>-0.01625860596621267</v>
+      </c>
+      <c r="H25">
+        <v>-0.04559635409693603</v>
+      </c>
+      <c r="I25">
+        <v>0.03188688374703223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.00903032871984992</v>
+        <v>0.006344196331528273</v>
       </c>
       <c r="C26">
-        <v>0.0140962654267638</v>
+        <v>-0.02488324760813969</v>
       </c>
       <c r="D26">
-        <v>-0.08213245107881469</v>
+        <v>0.07052303111642018</v>
       </c>
       <c r="E26">
-        <v>0.01859619399150669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02490362514722783</v>
+      </c>
+      <c r="F26">
+        <v>0.02316549831708086</v>
+      </c>
+      <c r="G26">
+        <v>-0.009741661645266842</v>
+      </c>
+      <c r="H26">
+        <v>-0.09083356360639236</v>
+      </c>
+      <c r="I26">
+        <v>-0.03971079225098097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2437396416356886</v>
+        <v>0.3198419098386778</v>
       </c>
       <c r="C28">
-        <v>-0.2168235836714554</v>
+        <v>0.09879875270834776</v>
       </c>
       <c r="D28">
-        <v>-0.0199437149469773</v>
+        <v>-0.006222682506589392</v>
       </c>
       <c r="E28">
-        <v>0.06587883569503913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05805612868596102</v>
+      </c>
+      <c r="F28">
+        <v>0.03677097232730895</v>
+      </c>
+      <c r="G28">
+        <v>0.03207346634370643</v>
+      </c>
+      <c r="H28">
+        <v>0.01487192245617555</v>
+      </c>
+      <c r="I28">
+        <v>-0.1299738337019887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>5.029338999890325e-05</v>
+        <v>-0.002756164847401431</v>
       </c>
       <c r="C29">
-        <v>0.02120532350216338</v>
+        <v>-0.02963197984707778</v>
       </c>
       <c r="D29">
-        <v>-0.09665001736931994</v>
+        <v>0.1002326689770741</v>
       </c>
       <c r="E29">
-        <v>0.01376218618261605</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03826399567360799</v>
+      </c>
+      <c r="F29">
+        <v>0.03546187179544115</v>
+      </c>
+      <c r="G29">
+        <v>0.004210059474352242</v>
+      </c>
+      <c r="H29">
+        <v>-0.1419498497475154</v>
+      </c>
+      <c r="I29">
+        <v>-0.01768670027456977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02493177868527522</v>
+        <v>0.01369812847722943</v>
       </c>
       <c r="C30">
-        <v>0.05733162050094303</v>
+        <v>-0.08298277877239006</v>
       </c>
       <c r="D30">
-        <v>-0.1649983834307359</v>
+        <v>0.1605903989637006</v>
       </c>
       <c r="E30">
-        <v>0.02013087374197414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03905299331859176</v>
+      </c>
+      <c r="F30">
+        <v>0.03524706926037882</v>
+      </c>
+      <c r="G30">
+        <v>0.02733141258584782</v>
+      </c>
+      <c r="H30">
+        <v>-0.06229949355101508</v>
+      </c>
+      <c r="I30">
+        <v>0.07092058189372764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04466391619300084</v>
+        <v>0.008819736862314204</v>
       </c>
       <c r="C31">
-        <v>0.08327753489829781</v>
+        <v>-0.09194639742026636</v>
       </c>
       <c r="D31">
-        <v>-0.06935919709474139</v>
+        <v>0.04148488328955144</v>
       </c>
       <c r="E31">
-        <v>0.01194681074650314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007640151373086925</v>
+      </c>
+      <c r="F31">
+        <v>0.01157193996888782</v>
+      </c>
+      <c r="G31">
+        <v>0.00333884398408445</v>
+      </c>
+      <c r="H31">
+        <v>-0.04669446922762818</v>
+      </c>
+      <c r="I31">
+        <v>-0.05676319242568918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02184414812816126</v>
+        <v>0.01129795499256379</v>
       </c>
       <c r="C32">
-        <v>0.03042067363010152</v>
+        <v>-0.04395596604744189</v>
       </c>
       <c r="D32">
-        <v>-0.1064514375591793</v>
+        <v>0.1113002743435593</v>
       </c>
       <c r="E32">
-        <v>0.06677173364029368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.005311744421480176</v>
+      </c>
+      <c r="F32">
+        <v>0.04333093836254929</v>
+      </c>
+      <c r="G32">
+        <v>0.01818579691782836</v>
+      </c>
+      <c r="H32">
+        <v>-0.04059055776754685</v>
+      </c>
+      <c r="I32">
+        <v>-0.07653022064026127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01341552753898487</v>
+        <v>0.005572314334905888</v>
       </c>
       <c r="C33">
-        <v>0.03996091862642472</v>
+        <v>-0.05530465470792577</v>
       </c>
       <c r="D33">
-        <v>-0.1415482420138469</v>
+        <v>0.1245090599898055</v>
       </c>
       <c r="E33">
-        <v>0.03772337417845393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01582552803080142</v>
+      </c>
+      <c r="F33">
+        <v>0.02531233560427233</v>
+      </c>
+      <c r="G33">
+        <v>0.0008582952839425744</v>
+      </c>
+      <c r="H33">
+        <v>-0.06874509796929523</v>
+      </c>
+      <c r="I33">
+        <v>-0.006574388214109143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02463556163099683</v>
+        <v>0.006021382215588108</v>
       </c>
       <c r="C34">
-        <v>0.05801003002552431</v>
+        <v>-0.0617677731528781</v>
       </c>
       <c r="D34">
-        <v>-0.05098742432015835</v>
+        <v>0.03060510271718472</v>
       </c>
       <c r="E34">
-        <v>-0.04835288540466711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02990926517995162</v>
+      </c>
+      <c r="F34">
+        <v>-0.03704338147992274</v>
+      </c>
+      <c r="G34">
+        <v>-0.01247888548946419</v>
+      </c>
+      <c r="H34">
+        <v>-0.06056090701183714</v>
+      </c>
+      <c r="I34">
+        <v>0.01931423663022473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001255005406347618</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.007219015492574861</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02922426341661033</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004487017729465815</v>
+      </c>
+      <c r="F35">
+        <v>0.0115798295239544</v>
+      </c>
+      <c r="G35">
+        <v>0.005564168801734659</v>
+      </c>
+      <c r="H35">
+        <v>-0.03921679220808258</v>
+      </c>
+      <c r="I35">
+        <v>0.02177372656830799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.008730993287490293</v>
+        <v>0.005606574809595909</v>
       </c>
       <c r="C36">
-        <v>0.005585545910062064</v>
+        <v>-0.0194070269525746</v>
       </c>
       <c r="D36">
-        <v>-0.08861701331373362</v>
+        <v>0.07558793405921727</v>
       </c>
       <c r="E36">
-        <v>0.04135092427494009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00558003752983374</v>
+      </c>
+      <c r="F36">
+        <v>0.03592568872487369</v>
+      </c>
+      <c r="G36">
+        <v>-0.001008647642096995</v>
+      </c>
+      <c r="H36">
+        <v>-0.06383886103858595</v>
+      </c>
+      <c r="I36">
+        <v>-0.02439248270361375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006463406672068559</v>
+        <v>0.01187113483040961</v>
       </c>
       <c r="C38">
-        <v>0.005754995132920001</v>
+        <v>-0.01543773274449781</v>
       </c>
       <c r="D38">
-        <v>-0.08513675821637103</v>
+        <v>0.08446516849022313</v>
       </c>
       <c r="E38">
-        <v>0.009019405514801728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01184423740907486</v>
+      </c>
+      <c r="F38">
+        <v>-0.007221094737026621</v>
+      </c>
+      <c r="G38">
+        <v>0.01949201908318814</v>
+      </c>
+      <c r="H38">
+        <v>-0.05636273691561407</v>
+      </c>
+      <c r="I38">
+        <v>-0.026521875637755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02010263719418817</v>
+        <v>0.004064439284501294</v>
       </c>
       <c r="C39">
-        <v>0.05573653208206121</v>
+        <v>-0.07412432131514854</v>
       </c>
       <c r="D39">
-        <v>-0.1159246849260753</v>
+        <v>0.1030986255920924</v>
       </c>
       <c r="E39">
-        <v>-0.01984975191105257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04788095254378448</v>
+      </c>
+      <c r="F39">
+        <v>-0.003152978312312902</v>
+      </c>
+      <c r="G39">
+        <v>-0.01301918266369448</v>
+      </c>
+      <c r="H39">
+        <v>-0.1093793013797255</v>
+      </c>
+      <c r="I39">
+        <v>0.07014833765315241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01127411555749942</v>
+        <v>0.01010460517929749</v>
       </c>
       <c r="C40">
-        <v>0.01569053000623155</v>
+        <v>-0.02405193086673204</v>
       </c>
       <c r="D40">
-        <v>-0.1191488835738009</v>
+        <v>0.09635814847709875</v>
       </c>
       <c r="E40">
-        <v>-0.02041412018847723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04360106147548608</v>
+      </c>
+      <c r="F40">
+        <v>-0.0221617599991845</v>
+      </c>
+      <c r="G40">
+        <v>0.06319407534736798</v>
+      </c>
+      <c r="H40">
+        <v>-0.08615821148485593</v>
+      </c>
+      <c r="I40">
+        <v>-0.08702410160412302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01143366417211523</v>
+        <v>0.01249393611589694</v>
       </c>
       <c r="C41">
-        <v>0.00556164644207833</v>
+        <v>-0.01532938176191287</v>
       </c>
       <c r="D41">
-        <v>-0.0517635291498977</v>
+        <v>0.04143462249105848</v>
       </c>
       <c r="E41">
-        <v>0.03116109407497824</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02115991447928875</v>
+      </c>
+      <c r="F41">
+        <v>0.01556634225615368</v>
+      </c>
+      <c r="G41">
+        <v>0.01056093909517562</v>
+      </c>
+      <c r="H41">
+        <v>-0.0411932041954278</v>
+      </c>
+      <c r="I41">
+        <v>-0.02899733954473033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005214303367805033</v>
+        <v>0.006066391282773807</v>
       </c>
       <c r="C43">
-        <v>0.005845959111393254</v>
+        <v>-0.01355563714441234</v>
       </c>
       <c r="D43">
-        <v>-0.06215556597401787</v>
+        <v>0.04993850004605241</v>
       </c>
       <c r="E43">
-        <v>0.01995436224422377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004904788271183568</v>
+      </c>
+      <c r="F43">
+        <v>0.01278868984304593</v>
+      </c>
+      <c r="G43">
+        <v>0.009183069273387958</v>
+      </c>
+      <c r="H43">
+        <v>-0.0584902192672311</v>
+      </c>
+      <c r="I43">
+        <v>-0.01269340313160499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01694307002246805</v>
+        <v>0.008872497565357811</v>
       </c>
       <c r="C44">
-        <v>0.02441065821344432</v>
+        <v>-0.0445940412765333</v>
       </c>
       <c r="D44">
-        <v>-0.1130672998003772</v>
+        <v>0.1169453110493238</v>
       </c>
       <c r="E44">
-        <v>0.04429699408216227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01945228143488278</v>
+      </c>
+      <c r="F44">
+        <v>0.02892276484190519</v>
+      </c>
+      <c r="G44">
+        <v>0.02121897017386239</v>
+      </c>
+      <c r="H44">
+        <v>-0.05568469126950604</v>
+      </c>
+      <c r="I44">
+        <v>0.05922467060445332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.008139635541542798</v>
+        <v>-0.001433341248993396</v>
       </c>
       <c r="C46">
-        <v>0.0273823170288704</v>
+        <v>-0.03910511001172296</v>
       </c>
       <c r="D46">
-        <v>-0.091538465487624</v>
+        <v>0.08381089347562191</v>
       </c>
       <c r="E46">
-        <v>0.01827938735273531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.026204326227144</v>
+      </c>
+      <c r="F46">
+        <v>0.0284779796755896</v>
+      </c>
+      <c r="G46">
+        <v>0.01130058080909108</v>
+      </c>
+      <c r="H46">
+        <v>-0.1461269684822682</v>
+      </c>
+      <c r="I46">
+        <v>-0.003465675759593769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08700526085927901</v>
+        <v>0.03397178642813151</v>
       </c>
       <c r="C47">
-        <v>0.1027447545103957</v>
+        <v>-0.1245243101477991</v>
       </c>
       <c r="D47">
-        <v>-0.06005041566331135</v>
+        <v>0.02470085271998994</v>
       </c>
       <c r="E47">
-        <v>0.02739633828811291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02101554166852022</v>
+      </c>
+      <c r="F47">
+        <v>-0.01312724774105079</v>
+      </c>
+      <c r="G47">
+        <v>-0.04862506146451618</v>
+      </c>
+      <c r="H47">
+        <v>-0.03920560982516575</v>
+      </c>
+      <c r="I47">
+        <v>-0.1220630163581318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007435096757855223</v>
+        <v>0.004571780866288937</v>
       </c>
       <c r="C48">
-        <v>0.0154982145316907</v>
+        <v>-0.02772235429389202</v>
       </c>
       <c r="D48">
-        <v>-0.09326577660283686</v>
+        <v>0.08041141434486596</v>
       </c>
       <c r="E48">
-        <v>0.0542255516846392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004035807802162655</v>
+      </c>
+      <c r="F48">
+        <v>0.03870663568498094</v>
+      </c>
+      <c r="G48">
+        <v>0.0009462907059907397</v>
+      </c>
+      <c r="H48">
+        <v>-0.09649348273839002</v>
+      </c>
+      <c r="I48">
+        <v>-0.006474696958712514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0414580686110563</v>
+        <v>0.01220835457988269</v>
       </c>
       <c r="C50">
-        <v>0.05987089641570494</v>
+        <v>-0.07370962007804513</v>
       </c>
       <c r="D50">
-        <v>-0.06745536270381032</v>
+        <v>0.04614736507661189</v>
       </c>
       <c r="E50">
-        <v>0.009071180191968177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0008792502247957117</v>
+      </c>
+      <c r="F50">
+        <v>0.005404146807484331</v>
+      </c>
+      <c r="G50">
+        <v>0.01923618132931548</v>
+      </c>
+      <c r="H50">
+        <v>-0.03257685204900309</v>
+      </c>
+      <c r="I50">
+        <v>-0.09548488994393779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002326676320380497</v>
+        <v>0.0006709674319407324</v>
       </c>
       <c r="C51">
-        <v>0.003157054949017679</v>
+        <v>-0.01438170595674629</v>
       </c>
       <c r="D51">
-        <v>-0.05693722094265443</v>
+        <v>0.06229986816665323</v>
       </c>
       <c r="E51">
-        <v>0.00131175662722017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03597149889733094</v>
+      </c>
+      <c r="F51">
+        <v>0.03625884994239563</v>
+      </c>
+      <c r="G51">
+        <v>0.02921484951465152</v>
+      </c>
+      <c r="H51">
+        <v>-0.04621928913554376</v>
+      </c>
+      <c r="I51">
+        <v>-0.01833645373459618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1121802840585548</v>
+        <v>0.05777636371389624</v>
       </c>
       <c r="C53">
-        <v>0.1184311193834556</v>
+        <v>-0.1566214261350949</v>
       </c>
       <c r="D53">
-        <v>-0.01833907204219041</v>
+        <v>-0.01354792804421407</v>
       </c>
       <c r="E53">
-        <v>0.05730677160512693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03421700112511652</v>
+      </c>
+      <c r="F53">
+        <v>0.04623586058466266</v>
+      </c>
+      <c r="G53">
+        <v>0.004668982595467423</v>
+      </c>
+      <c r="H53">
+        <v>-0.003261757590026599</v>
+      </c>
+      <c r="I53">
+        <v>-0.06121753289895313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01609786225434041</v>
+        <v>0.01025509629989236</v>
       </c>
       <c r="C54">
-        <v>0.02147968831596122</v>
+        <v>-0.038928564212054</v>
       </c>
       <c r="D54">
-        <v>-0.09998441813348018</v>
+        <v>0.08358037550791222</v>
       </c>
       <c r="E54">
-        <v>0.0004251408150227426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01225373215431941</v>
+      </c>
+      <c r="F54">
+        <v>-0.00204501473217338</v>
+      </c>
+      <c r="G54">
+        <v>0.02307115081546396</v>
+      </c>
+      <c r="H54">
+        <v>-0.09887181078955302</v>
+      </c>
+      <c r="I54">
+        <v>-0.02587344824656533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1000681689676961</v>
+        <v>0.04419267054879233</v>
       </c>
       <c r="C55">
-        <v>0.1005640286253885</v>
+        <v>-0.1292941235193308</v>
       </c>
       <c r="D55">
-        <v>-0.008618671349292166</v>
+        <v>-0.02686134742032319</v>
       </c>
       <c r="E55">
-        <v>0.01228804206104436</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001373336258785461</v>
+      </c>
+      <c r="F55">
+        <v>0.01267689247386861</v>
+      </c>
+      <c r="G55">
+        <v>0.01343269880622737</v>
+      </c>
+      <c r="H55">
+        <v>-0.007810466825958272</v>
+      </c>
+      <c r="I55">
+        <v>-0.07435565672826837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1398578448743089</v>
+        <v>0.06274070661604775</v>
       </c>
       <c r="C56">
-        <v>0.1342893982291847</v>
+        <v>-0.1876833099687025</v>
       </c>
       <c r="D56">
-        <v>-0.005559047891242547</v>
+        <v>-0.02441556445332894</v>
       </c>
       <c r="E56">
-        <v>0.01225313342445974</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03195023861689252</v>
+      </c>
+      <c r="F56">
+        <v>0.01026706168475186</v>
+      </c>
+      <c r="G56">
+        <v>0.05914369337750629</v>
+      </c>
+      <c r="H56">
+        <v>0.001423833048709974</v>
+      </c>
+      <c r="I56">
+        <v>-0.08979391305667808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.004019864145925913</v>
+        <v>0.004059627489639754</v>
       </c>
       <c r="C58">
-        <v>0.0107922117917647</v>
+        <v>-0.04699812405942878</v>
       </c>
       <c r="D58">
-        <v>-0.2192706697593706</v>
+        <v>0.2855388563344526</v>
       </c>
       <c r="E58">
-        <v>0.07751834835089333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02323334053187755</v>
+      </c>
+      <c r="F58">
+        <v>0.09120790338978128</v>
+      </c>
+      <c r="G58">
+        <v>0.122451612802772</v>
+      </c>
+      <c r="H58">
+        <v>0.09953273316328673</v>
+      </c>
+      <c r="I58">
+        <v>0.07395437204094871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1698077847692081</v>
+        <v>0.2471987147729583</v>
       </c>
       <c r="C59">
-        <v>-0.155879753440553</v>
+        <v>0.0673784097559034</v>
       </c>
       <c r="D59">
-        <v>-0.04818947292306536</v>
+        <v>0.05983053277450426</v>
       </c>
       <c r="E59">
-        <v>0.03638886202352042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03413285158651076</v>
+      </c>
+      <c r="F59">
+        <v>0.01315028577354152</v>
+      </c>
+      <c r="G59">
+        <v>0.002408482386046735</v>
+      </c>
+      <c r="H59">
+        <v>0.01013936078164915</v>
+      </c>
+      <c r="I59">
+        <v>-0.05628268230487827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1953387911868248</v>
+        <v>0.152846956116422</v>
       </c>
       <c r="C60">
-        <v>0.0905021349032218</v>
+        <v>-0.1694790007194631</v>
       </c>
       <c r="D60">
-        <v>-0.1851321066750757</v>
+        <v>0.09140976913875699</v>
       </c>
       <c r="E60">
-        <v>-0.1713751842607348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.230226742053042</v>
+      </c>
+      <c r="F60">
+        <v>-0.1582269028047263</v>
+      </c>
+      <c r="G60">
+        <v>-0.223864578856023</v>
+      </c>
+      <c r="H60">
+        <v>0.2173714664110002</v>
+      </c>
+      <c r="I60">
+        <v>-0.00606905028778076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03050727484525233</v>
+        <v>0.01192756185388504</v>
       </c>
       <c r="C61">
-        <v>0.05210011734609479</v>
+        <v>-0.07066079597797886</v>
       </c>
       <c r="D61">
-        <v>-0.103157616350235</v>
+        <v>0.08133410757176929</v>
       </c>
       <c r="E61">
-        <v>-0.00902158382615261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03563196848049023</v>
+      </c>
+      <c r="F61">
+        <v>-0.0130665962803451</v>
+      </c>
+      <c r="G61">
+        <v>-0.02669196371240538</v>
+      </c>
+      <c r="H61">
+        <v>-0.09603373327666725</v>
+      </c>
+      <c r="I61">
+        <v>0.02343366339263239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.00921522309610728</v>
+        <v>0.00183628819517937</v>
       </c>
       <c r="C63">
-        <v>0.02542823708832901</v>
+        <v>-0.03541646017713115</v>
       </c>
       <c r="D63">
-        <v>-0.09258867387795358</v>
+        <v>0.07019059232366262</v>
       </c>
       <c r="E63">
-        <v>0.01253595533243821</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0282934251798555</v>
+      </c>
+      <c r="F63">
+        <v>0.02090801275991989</v>
+      </c>
+      <c r="G63">
+        <v>0.004869066094896024</v>
+      </c>
+      <c r="H63">
+        <v>-0.06462117773475534</v>
+      </c>
+      <c r="I63">
+        <v>0.0099390761529367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06471303917657664</v>
+        <v>0.02144500461625019</v>
       </c>
       <c r="C64">
-        <v>0.07949879470313767</v>
+        <v>-0.1045069292154212</v>
       </c>
       <c r="D64">
-        <v>-0.04035870427087748</v>
+        <v>0.02668773340896088</v>
       </c>
       <c r="E64">
-        <v>0.02064228202161663</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02729725008662574</v>
+      </c>
+      <c r="F64">
+        <v>0.02405231991349803</v>
+      </c>
+      <c r="G64">
+        <v>-0.05041955616863476</v>
+      </c>
+      <c r="H64">
+        <v>-0.1148969819209549</v>
+      </c>
+      <c r="I64">
+        <v>0.06404771986496301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02748622502619193</v>
+        <v>0.02199244346098327</v>
       </c>
       <c r="C65">
-        <v>0.01627101877739096</v>
+        <v>-0.04100782685024192</v>
       </c>
       <c r="D65">
-        <v>-0.1198319268108874</v>
+        <v>0.1199892639884157</v>
       </c>
       <c r="E65">
-        <v>0.002887863677829994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04604871677805843</v>
+      </c>
+      <c r="F65">
+        <v>0.002060387608102445</v>
+      </c>
+      <c r="G65">
+        <v>-0.02628032001793877</v>
+      </c>
+      <c r="H65">
+        <v>-0.04504417975944316</v>
+      </c>
+      <c r="I65">
+        <v>0.02076266008900053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0230764255485319</v>
+        <v>0.001807657249942592</v>
       </c>
       <c r="C66">
-        <v>0.06317337677767208</v>
+        <v>-0.0895103907316296</v>
       </c>
       <c r="D66">
-        <v>-0.1210148296470071</v>
+        <v>0.1280439422990622</v>
       </c>
       <c r="E66">
-        <v>-0.02263902381156156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03377690737661604</v>
+      </c>
+      <c r="F66">
+        <v>-0.01070035315717136</v>
+      </c>
+      <c r="G66">
+        <v>0.006072434903518219</v>
+      </c>
+      <c r="H66">
+        <v>-0.06559690142128734</v>
+      </c>
+      <c r="I66">
+        <v>0.07067514914832472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02684647837713585</v>
+        <v>0.02314384662636405</v>
       </c>
       <c r="C67">
-        <v>0.01734409153904423</v>
+        <v>-0.02780381053721672</v>
       </c>
       <c r="D67">
-        <v>-0.04018948639656036</v>
+        <v>0.03385162547255543</v>
       </c>
       <c r="E67">
-        <v>-0.01697910309133053</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00424785569524871</v>
+      </c>
+      <c r="F67">
+        <v>-0.02972318425734585</v>
+      </c>
+      <c r="G67">
+        <v>0.007035613199177271</v>
+      </c>
+      <c r="H67">
+        <v>-0.06134685490212376</v>
+      </c>
+      <c r="I67">
+        <v>-0.01863682872750051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1956938771081692</v>
+        <v>0.2706235274381072</v>
       </c>
       <c r="C68">
-        <v>-0.1702033408685606</v>
+        <v>0.06849666840270918</v>
       </c>
       <c r="D68">
-        <v>-0.03164654341573423</v>
+        <v>0.03562632855471488</v>
       </c>
       <c r="E68">
-        <v>0.01130143551284929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005318951564889585</v>
+      </c>
+      <c r="F68">
+        <v>0.02743575391127376</v>
+      </c>
+      <c r="G68">
+        <v>0.06798548394845667</v>
+      </c>
+      <c r="H68">
+        <v>0.03864432794360795</v>
+      </c>
+      <c r="I68">
+        <v>-0.08882966214279726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0645066535919209</v>
+        <v>0.01961251942089908</v>
       </c>
       <c r="C69">
-        <v>0.1139200468001571</v>
+        <v>-0.1188132765442338</v>
       </c>
       <c r="D69">
-        <v>-0.08301826856622559</v>
+        <v>0.036674753453391</v>
       </c>
       <c r="E69">
-        <v>0.01436209798761813</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.001796994423676016</v>
+      </c>
+      <c r="F69">
+        <v>-0.0136999475986811</v>
+      </c>
+      <c r="G69">
+        <v>-0.03365533016461061</v>
+      </c>
+      <c r="H69">
+        <v>-0.03846540587591599</v>
+      </c>
+      <c r="I69">
+        <v>-0.08165650834431912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2010358176054735</v>
+        <v>0.2710355206654766</v>
       </c>
       <c r="C71">
-        <v>-0.1905593975698844</v>
+        <v>0.08563667315486601</v>
       </c>
       <c r="D71">
-        <v>-0.02494626483914542</v>
+        <v>0.02195790418326544</v>
       </c>
       <c r="E71">
-        <v>0.01651382321288785</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.01004194045902084</v>
+      </c>
+      <c r="F71">
+        <v>0.01242210900867664</v>
+      </c>
+      <c r="G71">
+        <v>0.03005742518148067</v>
+      </c>
+      <c r="H71">
+        <v>-0.01484897749526448</v>
+      </c>
+      <c r="I71">
+        <v>-0.1410968561890174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1102695054961155</v>
+        <v>0.05791591818036829</v>
       </c>
       <c r="C72">
-        <v>0.06699575891123995</v>
+        <v>-0.1221151444625745</v>
       </c>
       <c r="D72">
-        <v>-0.1010292704808544</v>
+        <v>0.06278766668638833</v>
       </c>
       <c r="E72">
-        <v>-0.04978379259256919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08554920113136986</v>
+      </c>
+      <c r="F72">
+        <v>-0.01538377670843374</v>
+      </c>
+      <c r="G72">
+        <v>-0.02641551793337777</v>
+      </c>
+      <c r="H72">
+        <v>-0.05695865870140396</v>
+      </c>
+      <c r="I72">
+        <v>0.06668508492439043</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1799367796864332</v>
+        <v>0.1368772247731773</v>
       </c>
       <c r="C73">
-        <v>0.05585748792630221</v>
+        <v>-0.1415820151589185</v>
       </c>
       <c r="D73">
-        <v>-0.2588960615114789</v>
+        <v>0.1029180965929886</v>
       </c>
       <c r="E73">
-        <v>-0.2635586285379499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3763597134707796</v>
+      </c>
+      <c r="F73">
+        <v>-0.2362446531256903</v>
+      </c>
+      <c r="G73">
+        <v>-0.4167761112522221</v>
+      </c>
+      <c r="H73">
+        <v>0.1608482604411229</v>
+      </c>
+      <c r="I73">
+        <v>0.04058539476026719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1134551612648064</v>
+        <v>0.05261000721446064</v>
       </c>
       <c r="C74">
-        <v>0.1105123907738312</v>
+        <v>-0.1487934525716112</v>
       </c>
       <c r="D74">
-        <v>0.02007108233739692</v>
+        <v>-0.03859282224332718</v>
       </c>
       <c r="E74">
-        <v>0.04099845658450184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01041434096968553</v>
+      </c>
+      <c r="F74">
+        <v>0.03887009482150088</v>
+      </c>
+      <c r="G74">
+        <v>0.0048046735099706</v>
+      </c>
+      <c r="H74">
+        <v>0.0115828863958261</v>
+      </c>
+      <c r="I74">
+        <v>-0.09638822605485929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2447073932760161</v>
+        <v>0.1165427941135641</v>
       </c>
       <c r="C75">
-        <v>0.1867717472625821</v>
+        <v>-0.2699663947905432</v>
       </c>
       <c r="D75">
-        <v>0.1090782429763783</v>
+        <v>-0.1329118692200916</v>
       </c>
       <c r="E75">
-        <v>-0.0178305472706384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08837661716732663</v>
+      </c>
+      <c r="F75">
+        <v>-0.04170578355747497</v>
+      </c>
+      <c r="G75">
+        <v>0.09900023436814806</v>
+      </c>
+      <c r="H75">
+        <v>0.0008445304505949082</v>
+      </c>
+      <c r="I75">
+        <v>-0.06881524504272987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1474980492159938</v>
+        <v>0.06739020068401812</v>
       </c>
       <c r="C76">
-        <v>0.1305503143751878</v>
+        <v>-0.1827568964721635</v>
       </c>
       <c r="D76">
-        <v>-0.01960467987004984</v>
+        <v>-0.03088704789650585</v>
       </c>
       <c r="E76">
-        <v>0.01149440763211038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02408316931180031</v>
+      </c>
+      <c r="F76">
+        <v>0.0001719712032246588</v>
+      </c>
+      <c r="G76">
+        <v>0.04030525799495958</v>
+      </c>
+      <c r="H76">
+        <v>-0.02807589860738338</v>
+      </c>
+      <c r="I76">
+        <v>-0.08278894385301154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01594433286305335</v>
+        <v>0.02300305367504226</v>
       </c>
       <c r="C77">
-        <v>0.07577141962319525</v>
+        <v>-0.09448429557629801</v>
       </c>
       <c r="D77">
-        <v>-0.05538493592175751</v>
+        <v>0.2759370265715577</v>
       </c>
       <c r="E77">
-        <v>0.2033213991587312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7669370912692852</v>
+      </c>
+      <c r="F77">
+        <v>-0.3177868809898945</v>
+      </c>
+      <c r="G77">
+        <v>-0.288870287780488</v>
+      </c>
+      <c r="H77">
+        <v>0.2357970956001167</v>
+      </c>
+      <c r="I77">
+        <v>-0.02486259966095952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0275308855631318</v>
+        <v>0.0134443554725476</v>
       </c>
       <c r="C78">
-        <v>0.06392334776073484</v>
+        <v>-0.08358940936459679</v>
       </c>
       <c r="D78">
-        <v>-0.1472211372970327</v>
+        <v>0.1321177850280899</v>
       </c>
       <c r="E78">
-        <v>0.04313130214951384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04902041277337987</v>
+      </c>
+      <c r="F78">
+        <v>0.04775238217341621</v>
+      </c>
+      <c r="G78">
+        <v>0.02987970749999522</v>
+      </c>
+      <c r="H78">
+        <v>-0.01155753013633812</v>
+      </c>
+      <c r="I78">
+        <v>-0.1068568278246501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09908965513330678</v>
+        <v>0.03548737896128095</v>
       </c>
       <c r="C79">
-        <v>0.1643873214457162</v>
+        <v>-0.1867421555327442</v>
       </c>
       <c r="D79">
-        <v>0.09769089105335844</v>
+        <v>-0.06930812665851493</v>
       </c>
       <c r="E79">
-        <v>0.8078124848223819</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1189455293550269</v>
+      </c>
+      <c r="F79">
+        <v>0.8123386910076514</v>
+      </c>
+      <c r="G79">
+        <v>-0.3703869589540299</v>
+      </c>
+      <c r="H79">
+        <v>0.2256045223011741</v>
+      </c>
+      <c r="I79">
+        <v>0.1307243671912099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007218651268692473</v>
+        <v>2.295162455684701e-05</v>
       </c>
       <c r="C80">
-        <v>0.04599497653081514</v>
+        <v>-0.04658099054987756</v>
       </c>
       <c r="D80">
-        <v>-0.04804017118216308</v>
+        <v>0.0428262735681458</v>
       </c>
       <c r="E80">
-        <v>-0.006708504570235098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02639090226745834</v>
+      </c>
+      <c r="F80">
+        <v>0.007198828721090214</v>
+      </c>
+      <c r="G80">
+        <v>0.0252594428523519</v>
+      </c>
+      <c r="H80">
+        <v>-0.02055522341062111</v>
+      </c>
+      <c r="I80">
+        <v>-0.06442032854221941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1248911651333505</v>
+        <v>0.04662686327856438</v>
       </c>
       <c r="C81">
-        <v>0.1274948361647641</v>
+        <v>-0.1665260196888219</v>
       </c>
       <c r="D81">
-        <v>0.07210364642856591</v>
+        <v>-0.07837666119130957</v>
       </c>
       <c r="E81">
-        <v>0.06579291709305338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07096352176692805</v>
+      </c>
+      <c r="F81">
+        <v>0.04406627466391658</v>
+      </c>
+      <c r="G81">
+        <v>0.0482966516955616</v>
+      </c>
+      <c r="H81">
+        <v>-0.06515808936642592</v>
+      </c>
+      <c r="I81">
+        <v>-0.1167631424591706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2677139133184668</v>
+        <v>0.1014620169831385</v>
       </c>
       <c r="C82">
-        <v>0.2841888145964235</v>
+        <v>-0.3304640335658913</v>
       </c>
       <c r="D82">
-        <v>0.1997834903595798</v>
+        <v>-0.2232638109771274</v>
       </c>
       <c r="E82">
-        <v>-0.1296431823093281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04775680322783391</v>
+      </c>
+      <c r="F82">
+        <v>-0.1267293008344874</v>
+      </c>
+      <c r="G82">
+        <v>0.08091528292893406</v>
+      </c>
+      <c r="H82">
+        <v>-0.1000864173570038</v>
+      </c>
+      <c r="I82">
+        <v>-0.05454908458814501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.003664887023248329</v>
+        <v>-0.01410478474369944</v>
       </c>
       <c r="C83">
-        <v>0.0528423194512997</v>
+        <v>-0.03390311293134765</v>
       </c>
       <c r="D83">
-        <v>-0.01333773486071886</v>
+        <v>0.03693173030782985</v>
       </c>
       <c r="E83">
-        <v>0.05638290376142487</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09456909981195306</v>
+      </c>
+      <c r="F83">
+        <v>0.03656030050557427</v>
+      </c>
+      <c r="G83">
+        <v>0.06866598616497505</v>
+      </c>
+      <c r="H83">
+        <v>-0.03741011803606713</v>
+      </c>
+      <c r="I83">
+        <v>-0.4359218791544078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0008191941083966547</v>
+        <v>-0.00389040527219596</v>
       </c>
       <c r="C84">
-        <v>-0.001762530380733816</v>
+        <v>-0.01757234475810434</v>
       </c>
       <c r="D84">
-        <v>-0.004367332903979014</v>
+        <v>0.04559868283897328</v>
       </c>
       <c r="E84">
-        <v>0.0003146950646619198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01270647572317359</v>
+      </c>
+      <c r="F84">
+        <v>0.02136344505521782</v>
+      </c>
+      <c r="G84">
+        <v>0.05178691111440856</v>
+      </c>
+      <c r="H84">
+        <v>-0.01315761372832661</v>
+      </c>
+      <c r="I84">
+        <v>0.05340358985181685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1478696399522656</v>
+        <v>0.06168780138783764</v>
       </c>
       <c r="C85">
-        <v>0.1334617408852975</v>
+        <v>-0.1849689856669787</v>
       </c>
       <c r="D85">
-        <v>0.04229416543048667</v>
+        <v>-0.08805995697818098</v>
       </c>
       <c r="E85">
-        <v>0.03001095091480341</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0001789523098776218</v>
+      </c>
+      <c r="F85">
+        <v>0.07771556864754618</v>
+      </c>
+      <c r="G85">
+        <v>0.0357484691011576</v>
+      </c>
+      <c r="H85">
+        <v>-0.007476132601606112</v>
+      </c>
+      <c r="I85">
+        <v>-0.07652389152103094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01411689895933203</v>
+        <v>0.01030595321959199</v>
       </c>
       <c r="C86">
-        <v>0.01163216230840485</v>
+        <v>-0.03004006812082434</v>
       </c>
       <c r="D86">
-        <v>-0.07808929613813631</v>
+        <v>0.1052376793284776</v>
       </c>
       <c r="E86">
-        <v>0.04694837182028384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03912413035251316</v>
+      </c>
+      <c r="F86">
+        <v>-0.01438612557162373</v>
+      </c>
+      <c r="G86">
+        <v>-0.02907964317279717</v>
+      </c>
+      <c r="H86">
+        <v>-0.00209345985453991</v>
+      </c>
+      <c r="I86">
+        <v>-0.08649905885355776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01520254098935893</v>
+        <v>0.008567639398779213</v>
       </c>
       <c r="C87">
-        <v>0.02663869854310564</v>
+        <v>-0.05338199850055902</v>
       </c>
       <c r="D87">
-        <v>-0.1295217614374637</v>
+        <v>0.1436311646685348</v>
       </c>
       <c r="E87">
-        <v>0.04659729506351198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.003116782568082651</v>
+      </c>
+      <c r="F87">
+        <v>0.03977492928302172</v>
+      </c>
+      <c r="G87">
+        <v>0.06178039947382181</v>
+      </c>
+      <c r="H87">
+        <v>-0.02843982558235626</v>
+      </c>
+      <c r="I87">
+        <v>0.01197480589567194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05819224795867645</v>
+        <v>0.03012494020822989</v>
       </c>
       <c r="C88">
-        <v>0.04508909114161175</v>
+        <v>-0.06801034572371878</v>
       </c>
       <c r="D88">
-        <v>-0.02775649152503154</v>
+        <v>0.005845888186114537</v>
       </c>
       <c r="E88">
-        <v>0.03058540410976522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01276941683192845</v>
+      </c>
+      <c r="F88">
+        <v>0.02123681872349006</v>
+      </c>
+      <c r="G88">
+        <v>0.002282734800656053</v>
+      </c>
+      <c r="H88">
+        <v>-0.02556868515619167</v>
+      </c>
+      <c r="I88">
+        <v>-0.01986452917790819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3026836224501814</v>
+        <v>0.4106808311877336</v>
       </c>
       <c r="C89">
-        <v>-0.3483132705697938</v>
+        <v>0.1683660037776773</v>
       </c>
       <c r="D89">
-        <v>-0.01084906387627333</v>
+        <v>0.02149912577202544</v>
       </c>
       <c r="E89">
-        <v>0.09676801136231057</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02714462959401661</v>
+      </c>
+      <c r="F89">
+        <v>0.08206456749288964</v>
+      </c>
+      <c r="G89">
+        <v>0.06022404104996299</v>
+      </c>
+      <c r="H89">
+        <v>-0.1522756889016966</v>
+      </c>
+      <c r="I89">
+        <v>0.2271807330537647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.24225753781426</v>
+        <v>0.3156210449359109</v>
       </c>
       <c r="C90">
-        <v>-0.2548357190001869</v>
+        <v>0.1116494136344812</v>
       </c>
       <c r="D90">
-        <v>-0.03662881094594835</v>
+        <v>0.03467098517622974</v>
       </c>
       <c r="E90">
-        <v>-0.00708838833228864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0169530060258122</v>
+      </c>
+      <c r="F90">
+        <v>-0.01969349202380202</v>
+      </c>
+      <c r="G90">
+        <v>0.05927213703277219</v>
+      </c>
+      <c r="H90">
+        <v>0.02452663278240679</v>
+      </c>
+      <c r="I90">
+        <v>-0.07954254368452837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.163897455185078</v>
+        <v>0.07189596874893835</v>
       </c>
       <c r="C91">
-        <v>0.1790736713359052</v>
+        <v>-0.2124270993211386</v>
       </c>
       <c r="D91">
-        <v>0.09433949568549034</v>
+        <v>-0.1062236006420571</v>
       </c>
       <c r="E91">
-        <v>0.09603155537187459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0646860719643496</v>
+      </c>
+      <c r="F91">
+        <v>0.06580145661691537</v>
+      </c>
+      <c r="G91">
+        <v>0.01025028393782128</v>
+      </c>
+      <c r="H91">
+        <v>-0.004002925364963092</v>
+      </c>
+      <c r="I91">
+        <v>-0.1036580213748882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2252913157317556</v>
+        <v>0.3375122197540092</v>
       </c>
       <c r="C92">
-        <v>-0.2696918304692976</v>
+        <v>0.145489740584573</v>
       </c>
       <c r="D92">
-        <v>0.04938057637357162</v>
+        <v>-0.001487593055967613</v>
       </c>
       <c r="E92">
-        <v>0.05203479335045167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07317978400485897</v>
+      </c>
+      <c r="F92">
+        <v>0.01603202099074432</v>
+      </c>
+      <c r="G92">
+        <v>0.018552232570973</v>
+      </c>
+      <c r="H92">
+        <v>-0.03432871288891744</v>
+      </c>
+      <c r="I92">
+        <v>0.2347599855473472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.265075834649604</v>
+        <v>0.3338195311177927</v>
       </c>
       <c r="C93">
-        <v>-0.2657965303321463</v>
+        <v>0.1198814467231069</v>
       </c>
       <c r="D93">
-        <v>-0.01379847523961649</v>
+        <v>-0.01539761396209488</v>
       </c>
       <c r="E93">
-        <v>0.003020832900962306</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02820414009938309</v>
+      </c>
+      <c r="F93">
+        <v>0.01128031023317138</v>
+      </c>
+      <c r="G93">
+        <v>-0.02035081903721836</v>
+      </c>
+      <c r="H93">
+        <v>0.003591472186107358</v>
+      </c>
+      <c r="I93">
+        <v>-0.06682741557109653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3099268295925556</v>
+        <v>0.1406616743229418</v>
       </c>
       <c r="C94">
-        <v>0.2547887821616677</v>
+        <v>-0.3603129794391691</v>
       </c>
       <c r="D94">
-        <v>0.3601745675345248</v>
+        <v>-0.3391145671268661</v>
       </c>
       <c r="E94">
-        <v>-0.1992380693494443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04594387677092755</v>
+      </c>
+      <c r="F94">
+        <v>-0.1173371276939821</v>
+      </c>
+      <c r="G94">
+        <v>0.3042381212526707</v>
+      </c>
+      <c r="H94">
+        <v>0.0498197314455085</v>
+      </c>
+      <c r="I94">
+        <v>0.3464713867004675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01723172068503223</v>
+        <v>0.01873695775874015</v>
       </c>
       <c r="C95">
-        <v>0.03632359211322091</v>
+        <v>-0.06058972722536133</v>
       </c>
       <c r="D95">
-        <v>-0.04684578487165985</v>
+        <v>0.1075210615644084</v>
       </c>
       <c r="E95">
-        <v>0.08353829127086893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1900108850419794</v>
+      </c>
+      <c r="F95">
+        <v>-0.07720176243320828</v>
+      </c>
+      <c r="G95">
+        <v>-0.1368403482324622</v>
+      </c>
+      <c r="H95">
+        <v>-0.3780478868131535</v>
+      </c>
+      <c r="I95">
+        <v>0.4658090005810168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0009010838801019244</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001986906407649804</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001280852746880046</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001557529374115108</v>
+      </c>
+      <c r="F97">
+        <v>-0.001546151185651655</v>
+      </c>
+      <c r="G97">
+        <v>-0.001865307546554417</v>
+      </c>
+      <c r="H97">
+        <v>-0.0008941304999659377</v>
+      </c>
+      <c r="I97">
+        <v>0.002169237206683841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1520500040774892</v>
+        <v>0.1151532981987661</v>
       </c>
       <c r="C98">
-        <v>0.07382509149527627</v>
+        <v>-0.1431138769529226</v>
       </c>
       <c r="D98">
-        <v>-0.1431215818229704</v>
+        <v>0.06269173018010797</v>
       </c>
       <c r="E98">
-        <v>-0.1971696194958933</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2701781664599189</v>
+      </c>
+      <c r="F98">
+        <v>-0.1690142178245453</v>
+      </c>
+      <c r="G98">
+        <v>-0.265247537644042</v>
+      </c>
+      <c r="H98">
+        <v>0.1736852558661987</v>
+      </c>
+      <c r="I98">
+        <v>0.02080225301981734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0003796980965841792</v>
+        <v>-0.00239258686794526</v>
       </c>
       <c r="C101">
-        <v>0.02063339300989666</v>
+        <v>-0.0290768118554943</v>
       </c>
       <c r="D101">
-        <v>-0.09670788991960219</v>
+        <v>0.0997852400620482</v>
       </c>
       <c r="E101">
-        <v>0.01495835772823026</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03756060373737841</v>
+      </c>
+      <c r="F101">
+        <v>0.03591895689278884</v>
+      </c>
+      <c r="G101">
+        <v>0.004897114077441472</v>
+      </c>
+      <c r="H101">
+        <v>-0.1431145675316457</v>
+      </c>
+      <c r="I101">
+        <v>-0.01783382333538571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1148256653398798</v>
+        <v>0.0343942120178167</v>
       </c>
       <c r="C102">
-        <v>0.1507969903866733</v>
+        <v>-0.1532659098854722</v>
       </c>
       <c r="D102">
-        <v>0.06565889569694712</v>
+        <v>-0.09150412398314657</v>
       </c>
       <c r="E102">
-        <v>-0.04672376275477338</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02803318834182009</v>
+      </c>
+      <c r="F102">
+        <v>-0.06772893843389367</v>
+      </c>
+      <c r="G102">
+        <v>-0.01275733196434097</v>
+      </c>
+      <c r="H102">
+        <v>-0.05065282202754907</v>
+      </c>
+      <c r="I102">
+        <v>-0.02299594193642687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
